--- a/subvariants/HADDOCK_Results.xlsx
+++ b/subvariants/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D12E17-ABC8-3348-B1B5-A295D80A6EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5CFFC-A680-4E24-B9D3-AD8D3382A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{B6F104C1-AFBB-9649-919F-59BA872AE924}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B6F104C1-AFBB-9649-919F-59BA872AE924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,10 +190,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,40 +512,40 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="197" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="192" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,56 +576,56 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -647,17 +647,65 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>-118.8</v>
+      </c>
+      <c r="L2">
+        <v>10.5</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.6</v>
+      </c>
+      <c r="P2">
+        <v>-72.3</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>-265.7</v>
+      </c>
+      <c r="S2">
+        <v>48.8</v>
+      </c>
+      <c r="T2">
+        <v>-8.9</v>
+      </c>
+      <c r="U2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V2">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="W2">
+        <v>53.5</v>
+      </c>
+      <c r="X2">
+        <v>2265.6</v>
+      </c>
+      <c r="Y2">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>-1.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -679,10 +727,58 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" t="b">
         <v>1</v>
+      </c>
+      <c r="K3">
+        <v>-121.4</v>
+      </c>
+      <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>-78</v>
+      </c>
+      <c r="Q3">
+        <v>3.1</v>
+      </c>
+      <c r="R3">
+        <v>-198.3</v>
+      </c>
+      <c r="S3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T3">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="U3">
+        <v>2.9</v>
+      </c>
+      <c r="V3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="W3">
+        <v>36.6</v>
+      </c>
+      <c r="X3">
+        <v>2326.3000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Z3">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
